--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H2">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N2">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q2">
-        <v>37.39828278098012</v>
+        <v>93.8070478091511</v>
       </c>
       <c r="R2">
-        <v>336.584545028821</v>
+        <v>844.26343028236</v>
       </c>
       <c r="S2">
-        <v>0.006199654612632535</v>
+        <v>0.01231992381043242</v>
       </c>
       <c r="T2">
-        <v>0.006199654612632535</v>
+        <v>0.01231992381043241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H3">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q3">
-        <v>84.76494319103311</v>
+        <v>143.4170132001689</v>
       </c>
       <c r="R3">
-        <v>762.884488719298</v>
+        <v>1290.75311880152</v>
       </c>
       <c r="S3">
-        <v>0.01405180484145349</v>
+        <v>0.01883532972213945</v>
       </c>
       <c r="T3">
-        <v>0.01405180484145349</v>
+        <v>0.01883532972213945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H4">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N4">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O4">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P4">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q4">
-        <v>17.44791896936367</v>
+        <v>31.79777694123555</v>
       </c>
       <c r="R4">
-        <v>157.031270724273</v>
+        <v>286.17999247112</v>
       </c>
       <c r="S4">
-        <v>0.00289240743893908</v>
+        <v>0.004176084829512467</v>
       </c>
       <c r="T4">
-        <v>0.00289240743893908</v>
+        <v>0.004176084829512467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H5">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N5">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O5">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P5">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q5">
-        <v>36.41652663870012</v>
+        <v>69.2414978186311</v>
       </c>
       <c r="R5">
-        <v>327.748739748301</v>
+        <v>623.17348036768</v>
       </c>
       <c r="S5">
-        <v>0.006036905188237521</v>
+        <v>0.009093666175075392</v>
       </c>
       <c r="T5">
-        <v>0.00603690518823752</v>
+        <v>0.00909366617507539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N6">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q6">
-        <v>577.1941299467813</v>
+        <v>855.6995719272885</v>
       </c>
       <c r="R6">
-        <v>5194.747169521032</v>
+        <v>7701.296147345597</v>
       </c>
       <c r="S6">
-        <v>0.09568365133408956</v>
+        <v>0.1123812525495064</v>
       </c>
       <c r="T6">
-        <v>0.09568365133408956</v>
+        <v>0.1123812525495063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q7">
         <v>1308.23727714095</v>
@@ -883,10 +883,10 @@
         <v>11774.13549426855</v>
       </c>
       <c r="S7">
-        <v>0.2168714354384632</v>
+        <v>0.1718142075330482</v>
       </c>
       <c r="T7">
-        <v>0.2168714354384632</v>
+        <v>0.1718142075330482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N8">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O8">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P8">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q8">
-        <v>269.2860650282477</v>
+        <v>290.0565016416637</v>
       </c>
       <c r="R8">
-        <v>2423.574585254229</v>
+        <v>2610.508514774974</v>
       </c>
       <c r="S8">
-        <v>0.04464056825676228</v>
+        <v>0.03809387550726504</v>
       </c>
       <c r="T8">
-        <v>0.04464056825676229</v>
+        <v>0.03809387550726503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.364557</v>
       </c>
       <c r="I9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N9">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O9">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P9">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q9">
-        <v>562.0419935323414</v>
+        <v>631.6148032240595</v>
       </c>
       <c r="R9">
-        <v>5058.377941791073</v>
+        <v>5684.533229016535</v>
       </c>
       <c r="S9">
-        <v>0.09317182444184532</v>
+        <v>0.08295161648294166</v>
       </c>
       <c r="T9">
-        <v>0.09317182444184532</v>
+        <v>0.08295161648294165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H10">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N10">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q10">
-        <v>667.0146220975458</v>
+        <v>1162.075557608873</v>
       </c>
       <c r="R10">
-        <v>6003.131598877912</v>
+        <v>10458.68001847986</v>
       </c>
       <c r="S10">
-        <v>0.1105735336244768</v>
+        <v>0.1526184083826424</v>
       </c>
       <c r="T10">
-        <v>0.1105735336244768</v>
+        <v>0.1526184083826423</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H11">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q11">
-        <v>1511.819590241762</v>
+        <v>1776.640556093986</v>
       </c>
       <c r="R11">
-        <v>13606.37631217585</v>
+        <v>15989.76500484587</v>
       </c>
       <c r="S11">
-        <v>0.2506200445352355</v>
+        <v>0.2333308296209589</v>
       </c>
       <c r="T11">
-        <v>0.2506200445352355</v>
+        <v>0.2333308296209589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H12">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N12">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O12">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P12">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q12">
-        <v>311.1912155404507</v>
+        <v>393.9087758617659</v>
       </c>
       <c r="R12">
-        <v>2800.720939864056</v>
+        <v>3545.178982755894</v>
       </c>
       <c r="S12">
-        <v>0.05158734335837649</v>
+        <v>0.05173306505446002</v>
       </c>
       <c r="T12">
-        <v>0.0515873433583765</v>
+        <v>0.05173306505446001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H13">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N13">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O13">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P13">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q13">
-        <v>649.5045747493858</v>
+        <v>857.759135016824</v>
       </c>
       <c r="R13">
-        <v>5845.541172744473</v>
+        <v>7719.832215151416</v>
       </c>
       <c r="S13">
-        <v>0.1076708269294881</v>
+        <v>0.1126517403320179</v>
       </c>
       <c r="T13">
-        <v>0.107670826929488</v>
+        <v>0.1126517403320179</v>
       </c>
     </row>
   </sheetData>
